--- a/ReportingDashboardExport.xlsx
+++ b/ReportingDashboardExport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rpxcorp-my.sharepoint.com/personal/jmiller_rpxcorp_com/Documents/R Projects/Reporting Dashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="184" documentId="13_ncr:1_{C0542016-DE8A-475F-A906-0E4C75787925}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B87A8C0A-492D-4E84-932D-937A385BC09F}"/>
+  <xr:revisionPtr revIDLastSave="187" documentId="13_ncr:1_{C0542016-DE8A-475F-A906-0E4C75787925}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{6F6C996E-59D8-417A-922E-AF38CA35DFD6}"/>
   <bookViews>
-    <workbookView xWindow="53652" yWindow="-1764" windowWidth="30936" windowHeight="16896" tabRatio="678" xr2:uid="{20B6C54F-D2F3-42DB-A199-C302E528B8D6}"/>
+    <workbookView xWindow="22932" yWindow="-1692" windowWidth="30936" windowHeight="16896" tabRatio="678" activeTab="2" xr2:uid="{20B6C54F-D2F3-42DB-A199-C302E528B8D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Defs Added by Quarter" sheetId="1" r:id="rId1"/>
@@ -1779,7 +1779,7 @@
       <c:catAx>
         <c:axId val="886196816"/>
         <c:scaling>
-          <c:orientation val="minMax"/>
+          <c:orientation val="maxMin"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1827,7 +1827,7 @@
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
-        <c:axPos val="b"/>
+        <c:axPos val="t"/>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2184,7 +2184,7 @@
       <c:catAx>
         <c:axId val="886196816"/>
         <c:scaling>
-          <c:orientation val="minMax"/>
+          <c:orientation val="maxMin"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2232,7 +2232,7 @@
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
-        <c:axPos val="b"/>
+        <c:axPos val="t"/>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2582,7 +2582,7 @@
       <c:catAx>
         <c:axId val="874420072"/>
         <c:scaling>
-          <c:orientation val="minMax"/>
+          <c:orientation val="maxMin"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2630,7 +2630,7 @@
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
-        <c:axPos val="b"/>
+        <c:axPos val="t"/>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -8940,7 +8940,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53F5D069-C005-4D7F-87B6-6C19F6DA410E}">
   <dimension ref="A1:E61"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
@@ -9870,7 +9872,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C6910EE-80BC-431D-B158-4F66462A430E}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>

--- a/ReportingDashboardExport.xlsx
+++ b/ReportingDashboardExport.xlsx
@@ -8,40 +8,43 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rpxcorp-my.sharepoint.com/personal/jmiller_rpxcorp_com/Documents/R Projects/Reporting Dashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="187" documentId="13_ncr:1_{C0542016-DE8A-475F-A906-0E4C75787925}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{6F6C996E-59D8-417A-922E-AF38CA35DFD6}"/>
+  <xr:revisionPtr revIDLastSave="113" documentId="13_ncr:1_{01BC4A82-9569-4D44-9C62-69BF77ACE899}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{9AF533D6-5912-4867-8ED3-B2B93E7D4B3A}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-1692" windowWidth="30936" windowHeight="16896" tabRatio="678" activeTab="2" xr2:uid="{20B6C54F-D2F3-42DB-A199-C302E528B8D6}"/>
+    <workbookView xWindow="22932" yWindow="-1692" windowWidth="30936" windowHeight="16896" tabRatio="768" xr2:uid="{DB1B44BC-2624-4833-BB68-7056DF8B2FCD}"/>
   </bookViews>
   <sheets>
-    <sheet name="Defs Added by Quarter" sheetId="1" r:id="rId1"/>
-    <sheet name="Defs Added by Year" sheetId="7" r:id="rId2"/>
-    <sheet name="Top Districts (Overall)" sheetId="3" r:id="rId3"/>
-    <sheet name="Top Districts (NPE)" sheetId="4" r:id="rId4"/>
-    <sheet name="Top Districts (OpCo)" sheetId="5" r:id="rId5"/>
+    <sheet name="Defs Added by Quarter" sheetId="3" r:id="rId1"/>
+    <sheet name="Defs Added by Year" sheetId="1" r:id="rId2"/>
+    <sheet name="Top Districts (Overall)" sheetId="5" r:id="rId3"/>
+    <sheet name="Top Districts (NPE)" sheetId="6" r:id="rId4"/>
+    <sheet name="Top Districts (OpCo)" sheetId="7" r:id="rId5"/>
     <sheet name="PTAB Filings by Quarter" sheetId="8" r:id="rId6"/>
     <sheet name="PTAB Filings by Year" sheetId="9" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="DC_Lits_Quarter_Design">OFFSET('Defs Added by Quarter'!$D$2,0,0,COUNTA('Defs Added by Quarter'!$D$2:$D$62))</definedName>
-    <definedName name="DC_Lits_Quarter_NPE">OFFSET('Defs Added by Quarter'!$B$2,0,0,COUNTA('Defs Added by Quarter'!$B$2:$B$62))</definedName>
-    <definedName name="DC_Lits_Quarter_Operating_Company">OFFSET('Defs Added by Quarter'!$C$2,0,0,COUNTA('Defs Added by Quarter'!$C$2:$C$62))</definedName>
-    <definedName name="DC_Lits_Quarter_Quarter_Started">OFFSET('Defs Added by Quarter'!$A$2,0,0,COUNTA('Defs Added by Quarter'!$A$2:$A$62))</definedName>
-    <definedName name="DC_Lits_Quarter_Total">OFFSET('Defs Added by Quarter'!$E$2,0,0,COUNTA('Defs Added by Quarter'!$E$2:$E$62))</definedName>
-    <definedName name="DC_Lits_Year_Design" localSheetId="1">OFFSET('Defs Added by Year'!$D$2,0,0,COUNTA('Defs Added by Year'!$D$2:$D$62))</definedName>
-    <definedName name="DC_Lits_Year_NPE" localSheetId="1">OFFSET('Defs Added by Year'!$B$2,0,0,COUNTA('Defs Added by Year'!$B$2:$B$62))</definedName>
-    <definedName name="DC_Lits_Year_Operating_Company" localSheetId="1">OFFSET('Defs Added by Year'!$C$2,0,0,COUNTA('Defs Added by Year'!$C$2:$C$62))</definedName>
-    <definedName name="DC_Lits_Year_Total" localSheetId="1">OFFSET('Defs Added by Year'!$E$2,0,0,COUNTA('Defs Added by Year'!$E$2:$E$62))</definedName>
-    <definedName name="DC_Lits_Year_Year_Started" localSheetId="1">OFFSET('Defs Added by Year'!$A$2,0,0,COUNTA('Defs Added by Year'!$A$2:$A$62))</definedName>
-    <definedName name="PTAB_Filings_Quarter_CBM">OFFSET('PTAB Filings by Quarter'!$C$2,0,0,COUNTA('PTAB Filings by Quarter'!$C$2:$C$62))</definedName>
-    <definedName name="PTAB_Filings_Quarter_IPR">OFFSET('PTAB Filings by Quarter'!$B$2,0,0,COUNTA('PTAB Filings by Quarter'!$B$2:$B$62))</definedName>
-    <definedName name="PTAB_Filings_Quarter_PGR">OFFSET('PTAB Filings by Quarter'!$D$2,0,0,COUNTA('PTAB Filings by Quarter'!$D$2:$D$62))</definedName>
-    <definedName name="PTAB_Filings_Quarter_Quarter_Filed">OFFSET('PTAB Filings by Quarter'!$A$2,0,0,COUNTA('PTAB Filings by Quarter'!$A$2:$A$62))</definedName>
-    <definedName name="PTAB_Filings_Quarter_Total">OFFSET('PTAB Filings by Quarter'!$E$2,0,0,COUNTA('PTAB Filings by Quarter'!$E$2:$E$62))</definedName>
-    <definedName name="PTAB_Filings_Year_CBM" localSheetId="6">OFFSET('PTAB Filings by Year'!$C$2,0,0,COUNTA('PTAB Filings by Year'!$C$2:$C$62))</definedName>
-    <definedName name="PTAB_Filings_Year_IPR" localSheetId="6">OFFSET('PTAB Filings by Year'!$B$2,0,0,COUNTA('PTAB Filings by Year'!$B$2:$B$62))</definedName>
-    <definedName name="PTAB_Filings_Year_PGR" localSheetId="6">OFFSET('PTAB Filings by Year'!$D$2,0,0,COUNTA('PTAB Filings by Year'!$D$2:$D$62))</definedName>
-    <definedName name="PTAB_Filings_Year_Total" localSheetId="6">OFFSET('PTAB Filings by Year'!$E$2,0,0,COUNTA('PTAB Filings by Year'!$E$2:$E$62))</definedName>
-    <definedName name="PTAB_Filings_Year_Year_Filed" localSheetId="6">OFFSET('PTAB Filings by Year'!$A$2,0,0,COUNTA('PTAB Filings by Year'!$A$2:$A$62))</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Top Districts (OpCo)'!$A$7:$C$7</definedName>
+    <definedName name="Defs_Quarter_Design" localSheetId="0">OFFSET('Defs Added by Quarter'!$D$8,0,0,COUNTA('Defs Added by Quarter'!$D$8:$D$68))</definedName>
+    <definedName name="Defs_Quarter_NPE" localSheetId="0">OFFSET('Defs Added by Quarter'!$B$8,0,0,COUNTA('Defs Added by Quarter'!$B$8:$B$68))</definedName>
+    <definedName name="Defs_Quarter_OpCo" localSheetId="0">OFFSET('Defs Added by Quarter'!$C$8,0,0,COUNTA('Defs Added by Quarter'!$C$8:$C$68))</definedName>
+    <definedName name="Defs_Quarter_Quarter_Started" localSheetId="0">OFFSET('Defs Added by Quarter'!$A$8,0,0,COUNTA('Defs Added by Quarter'!$A$8:$A$68))</definedName>
+    <definedName name="Defs_Quarter_Total" localSheetId="0">OFFSET('Defs Added by Quarter'!$E$8,0,0,COUNTA('Defs Added by Quarter'!$E$8:$E$68))</definedName>
+    <definedName name="Defs_Quarter_Total_No_Design" localSheetId="0">OFFSET('Defs Added by Quarter'!$F$8,0,0,COUNTA('Defs Added by Quarter'!$F$8:$F$68))</definedName>
+    <definedName name="Defs_Year_Design" localSheetId="1">OFFSET('Defs Added by Year'!$D$8,0,0,COUNTA('Defs Added by Year'!$D$8:$D$68))</definedName>
+    <definedName name="Defs_Year_NPE" localSheetId="1">OFFSET('Defs Added by Year'!$B$8,0,0,COUNTA('Defs Added by Year'!$B$8:$B$68))</definedName>
+    <definedName name="Defs_Year_OpCo" localSheetId="1">OFFSET('Defs Added by Year'!$C$8,0,0,COUNTA('Defs Added by Year'!$C$8:$C$68))</definedName>
+    <definedName name="Defs_Year_Total" localSheetId="1">OFFSET('Defs Added by Year'!$E$8,0,0,COUNTA('Defs Added by Year'!$E$8:$E$68))</definedName>
+    <definedName name="Defs_Year_Total_No_Design" localSheetId="1">OFFSET('Defs Added by Year'!$F$8,0,0,COUNTA('Defs Added by Year'!$F$8:$F$68))</definedName>
+    <definedName name="Defs_Year_Year_Started" localSheetId="1">OFFSET('Defs Added by Year'!$A$8,0,0,COUNTA('Defs Added by Year'!$A$8:$A$68))</definedName>
+    <definedName name="PTAB_Filings_Quarter_CBM" localSheetId="5">OFFSET('PTAB Filings by Quarter'!$C$8,0,0,COUNTA('PTAB Filings by Quarter'!$C$8:$C$68))</definedName>
+    <definedName name="PTAB_Filings_Quarter_IPR" localSheetId="5">OFFSET('PTAB Filings by Quarter'!$B$8,0,0,COUNTA('PTAB Filings by Quarter'!$B$8:$B$68))</definedName>
+    <definedName name="PTAB_Filings_Quarter_PGR" localSheetId="5">OFFSET('PTAB Filings by Quarter'!$D$8,0,0,COUNTA('PTAB Filings by Quarter'!$D$8:$D$68))</definedName>
+    <definedName name="PTAB_Filings_Quarter_Quarter_Filed" localSheetId="5">OFFSET('PTAB Filings by Quarter'!$A$8,0,0,COUNTA('PTAB Filings by Quarter'!$A$8:$A$68))</definedName>
+    <definedName name="PTAB_Filings_Quarter_Total" localSheetId="5">OFFSET('PTAB Filings by Quarter'!$E$8,0,0,COUNTA('PTAB Filings by Quarter'!$E$8:$E$68))</definedName>
+    <definedName name="PTAB_Filings_Year_CBM" localSheetId="6">OFFSET('PTAB Filings by Year'!$C$8,0,0,COUNTA('PTAB Filings by Year'!$C$8:$C$68))</definedName>
+    <definedName name="PTAB_Filings_Year_IPR" localSheetId="6">OFFSET('PTAB Filings by Year'!$B$8,0,0,COUNTA('PTAB Filings by Year'!$B$8:$B$68))</definedName>
+    <definedName name="PTAB_Filings_Year_PGR" localSheetId="6">OFFSET('PTAB Filings by Year'!$D$8,0,0,COUNTA('PTAB Filings by Year'!$D$8:$D$68))</definedName>
+    <definedName name="PTAB_Filings_Year_Total" localSheetId="6">OFFSET('PTAB Filings by Year'!$E$8,0,0,COUNTA('PTAB Filings by Year'!$E$8:$E$68))</definedName>
+    <definedName name="PTAB_Filings_Year_Year_Filed" localSheetId="6">OFFSET('PTAB Filings by Year'!$A$8,0,0,COUNTA('PTAB Filings by Year'!$A$8:$A$68))</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -61,9 +64,60 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="32">
   <si>
-    <t>Quarter Started</t>
+    <t>% of Total</t>
+  </si>
+  <si>
+    <t>Quarter Filed</t>
+  </si>
+  <si>
+    <t>IPR</t>
+  </si>
+  <si>
+    <t>CBM</t>
+  </si>
+  <si>
+    <t>PGR</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Year Filed</t>
+  </si>
+  <si>
+    <t>Source:</t>
+  </si>
+  <si>
+    <t>Title:</t>
+  </si>
+  <si>
+    <t>PTAB Petitions Filed by Year</t>
+  </si>
+  <si>
+    <t>RPX Research, USPTO</t>
+  </si>
+  <si>
+    <t>Date Range Selected:</t>
+  </si>
+  <si>
+    <t>Data as of:</t>
+  </si>
+  <si>
+    <t>RPX Research, PACER</t>
+  </si>
+  <si>
+    <t>Top Districts by Defendants Added (Overall)</t>
+  </si>
+  <si>
+    <t>PTAB Petitions Filed by Quarter</t>
+  </si>
+  <si>
+    <t>Top Districts by Defendants Added (NPE)</t>
+  </si>
+  <si>
+    <t>Top Districts by Defendants Added (Operating Company)</t>
   </si>
   <si>
     <t>NPE</t>
@@ -75,47 +129,44 @@
     <t>Design Patent</t>
   </si>
   <si>
-    <t>Total</t>
+    <t>Defendants Added to Patent Campaigns by Quarter</t>
+  </si>
+  <si>
+    <t>Notes:</t>
+  </si>
+  <si>
+    <t>Pure design patent litigation excluded</t>
+  </si>
+  <si>
+    <t>Defendants Added to Patent Campaigns by Year</t>
+  </si>
+  <si>
+    <t>Q1 2016</t>
   </si>
   <si>
     <t>Year Started</t>
   </si>
   <si>
-    <t>Court</t>
+    <t>2018 Q1</t>
   </si>
   <si>
-    <t>Defendant Count</t>
+    <t>District</t>
   </si>
   <si>
-    <t>% of Total</t>
+    <t>Defendants Added</t>
   </si>
   <si>
-    <t>Quarter Filed</t>
+    <t>Total w/ Design Litigation</t>
   </si>
   <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2017 Q1</t>
-  </si>
-  <si>
-    <t>IPR</t>
-  </si>
-  <si>
-    <t>CBM</t>
-  </si>
-  <si>
-    <t>PGR</t>
-  </si>
-  <si>
-    <t>Year Filed</t>
+    <t>Total excl. Design Litigation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -132,10 +183,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -160,7 +207,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -205,22 +252,129 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -239,13 +393,6 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -253,6 +400,96 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -290,7 +527,6 @@
       <c:style val="2"/>
     </mc:Fallback>
   </mc:AlternateContent>
-  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
@@ -304,7 +540,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Defs Added by Quarter'!$B$1</c:f>
+              <c:f>'Defs Added by Quarter'!$B$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -379,30 +615,30 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>[0]!DC_Lits_Quarter_Quarter_Started</c:f>
+              <c:f>'Defs Added by Quarter'!Defs_Quarter_Quarter_Started</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2017 Q1</c:v>
+                  <c:v>2018 Q1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[0]!DC_Lits_Quarter_NPE</c:f>
+              <c:f>'Defs Added by Quarter'!Defs_Quarter_NPE</c:f>
               <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>489</c:v>
+                  <c:v>373</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F47A-4682-B832-46105EC3E14F}"/>
+              <c16:uniqueId val="{00000000-2830-48C3-A1AC-CEDAFE6E8DDE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -411,7 +647,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Defs Added by Quarter'!$C$1</c:f>
+              <c:f>'Defs Added by Quarter'!$C$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -486,30 +722,30 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>[0]!DC_Lits_Quarter_Quarter_Started</c:f>
+              <c:f>'Defs Added by Quarter'!Defs_Quarter_Quarter_Started</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2017 Q1</c:v>
+                  <c:v>2018 Q1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[0]!DC_Lits_Quarter_Operating_Company</c:f>
+              <c:f>'Defs Added by Quarter'!Defs_Quarter_OpCo</c:f>
               <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>346</c:v>
+                  <c:v>434</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-F47A-4682-B832-46105EC3E14F}"/>
+              <c16:uniqueId val="{00000001-2830-48C3-A1AC-CEDAFE6E8DDE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -518,7 +754,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Defs Added by Quarter'!$D$1</c:f>
+              <c:f>'Defs Added by Quarter'!$D$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -537,86 +773,32 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>[0]!DC_Lits_Quarter_Quarter_Started</c:f>
+              <c:f>'Defs Added by Quarter'!Defs_Quarter_Quarter_Started</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2017 Q1</c:v>
+                  <c:v>2018 Q1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[0]!DC_Lits_Quarter_Design</c:f>
+              <c:f>'Defs Added by Quarter'!Defs_Quarter_Design</c:f>
               <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>48</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-F47A-4682-B832-46105EC3E14F}"/>
+              <c16:uniqueId val="{00000002-2830-48C3-A1AC-CEDAFE6E8DDE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -625,11 +807,11 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Defs Added by Quarter'!$E$1</c:f>
+              <c:f>'Defs Added by Quarter'!$E$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Total</c:v>
+                  <c:v>Total w/ Design Litigation</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -699,30 +881,30 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>[0]!DC_Lits_Quarter_Quarter_Started</c:f>
+              <c:f>'Defs Added by Quarter'!Defs_Quarter_Quarter_Started</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2017 Q1</c:v>
+                  <c:v>2018 Q1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[0]!DC_Lits_Quarter_Total</c:f>
+              <c:f>'Defs Added by Quarter'!Defs_Quarter_Total</c:f>
               <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>883</c:v>
+                  <c:v>871</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-F47A-4682-B832-46105EC3E14F}"/>
+              <c16:uniqueId val="{00000003-2830-48C3-A1AC-CEDAFE6E8DDE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -736,11 +918,11 @@
         </c:dLbls>
         <c:gapWidth val="50"/>
         <c:overlap val="100"/>
-        <c:axId val="656912800"/>
-        <c:axId val="656909520"/>
+        <c:axId val="726839600"/>
+        <c:axId val="726841240"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="656912800"/>
+        <c:axId val="726839600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -777,7 +959,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="656909520"/>
+        <c:crossAx val="726841240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -785,19 +967,18 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="656909520"/>
+        <c:axId val="726841240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="2750"/>
-          <c:min val="0"/>
+          <c:max val="3000"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="l"/>
-        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="656912800"/>
+        <c:crossAx val="726839600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -843,8 +1024,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
     <c:showDLblsOverMax val="0"/>
-    <c:extLst/>
   </c:chart>
   <c:spPr>
     <a:noFill/>
@@ -891,7 +1078,6 @@
       <c:style val="2"/>
     </mc:Fallback>
   </mc:AlternateContent>
-  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
@@ -905,7 +1091,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Defs Added by Year'!$B$1</c:f>
+              <c:f>'Defs Added by Quarter'!$B$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -980,30 +1166,30 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Defs Added by Year'!DC_Lits_Year_Year_Started</c:f>
+              <c:f>'Defs Added by Quarter'!Defs_Quarter_Quarter_Started</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2010</c:v>
+                  <c:v>2018 Q1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Defs Added by Year'!DC_Lits_Year_NPE</c:f>
+              <c:f>'Defs Added by Quarter'!Defs_Quarter_NPE</c:f>
               <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>3617</c:v>
+                  <c:v>373</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-810E-451F-90CA-4459E32CE6DC}"/>
+              <c16:uniqueId val="{00000000-4FBA-41CC-8BC5-0E3E71D52903}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1012,7 +1198,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Defs Added by Year'!$C$1</c:f>
+              <c:f>'Defs Added by Quarter'!$C$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1087,30 +1273,30 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Defs Added by Year'!DC_Lits_Year_Year_Started</c:f>
+              <c:f>'Defs Added by Quarter'!Defs_Quarter_Quarter_Started</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2010</c:v>
+                  <c:v>2018 Q1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Defs Added by Year'!DC_Lits_Year_Operating_Company</c:f>
+              <c:f>'Defs Added by Quarter'!Defs_Quarter_OpCo</c:f>
               <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2191</c:v>
+                  <c:v>434</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-810E-451F-90CA-4459E32CE6DC}"/>
+              <c16:uniqueId val="{00000001-4FBA-41CC-8BC5-0E3E71D52903}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1119,118 +1305,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Defs Added by Year'!$D$1</c:f>
+              <c:f>'Defs Added by Quarter'!$F$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Design Patent</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="tx2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Defs Added by Year'!DC_Lits_Year_Year_Started</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>2010</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Defs Added by Year'!DC_Lits_Year_Design</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>292</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-810E-451F-90CA-4459E32CE6DC}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Defs Added by Year'!$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Total</c:v>
+                  <c:v>Total excl. Design Litigation</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1300,30 +1379,30 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Defs Added by Year'!DC_Lits_Year_Year_Started</c:f>
+              <c:f>'Defs Added by Quarter'!Defs_Quarter_Quarter_Started</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2010</c:v>
+                  <c:v>2018 Q1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Defs Added by Year'!DC_Lits_Year_Total</c:f>
+              <c:f>'Defs Added by Quarter'!Defs_Quarter_Total_No_Design</c:f>
               <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>6100</c:v>
+                  <c:v>807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-810E-451F-90CA-4459E32CE6DC}"/>
+              <c16:uniqueId val="{00000007-4FBA-41CC-8BC5-0E3E71D52903}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1337,11 +1416,11 @@
         </c:dLbls>
         <c:gapWidth val="50"/>
         <c:overlap val="100"/>
-        <c:axId val="656912800"/>
-        <c:axId val="656909520"/>
+        <c:axId val="726839600"/>
+        <c:axId val="726841240"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="656912800"/>
+        <c:axId val="726839600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1378,7 +1457,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="656909520"/>
+        <c:crossAx val="726841240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1386,19 +1465,18 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="656909520"/>
+        <c:axId val="726841240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="7500"/>
-          <c:min val="0"/>
+          <c:max val="1200"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="l"/>
-        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="656912800"/>
+        <c:crossAx val="726839600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1413,7 +1491,7 @@
     <c:legend>
       <c:legendPos val="b"/>
       <c:legendEntry>
-        <c:idx val="3"/>
+        <c:idx val="2"/>
         <c:delete val="1"/>
       </c:legendEntry>
       <c:overlay val="0"/>
@@ -1444,8 +1522,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
     <c:showDLblsOverMax val="0"/>
-    <c:extLst/>
   </c:chart>
   <c:spPr>
     <a:noFill/>
@@ -1497,26 +1581,26 @@
     <c:plotArea>
       <c:layout/>
       <c:barChart>
-        <c:barDir val="bar"/>
-        <c:grouping val="clustered"/>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Top Districts (Overall)'!$B$1</c:f>
+              <c:f>'Defs Added by Year'!$B$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Defendant Count</c:v>
+                  <c:v>NPE</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="tx1"/>
+              <a:schemeClr val="accent4"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -1525,156 +1609,274 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="outEnd"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:separator>
-</c:separator>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-97EA-4624-9EAA-44F83C3C4BE9}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="outEnd"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:separator>
-</c:separator>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000004-97EA-4624-9EAA-44F83C3C4BE9}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="2"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="outEnd"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:separator>
-</c:separator>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000005-97EA-4624-9EAA-44F83C3C4BE9}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="3"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="outEnd"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:separator>
-</c:separator>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000006-97EA-4624-9EAA-44F83C3C4BE9}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="4"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="outEnd"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:separator>
-</c:separator>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000007-97EA-4624-9EAA-44F83C3C4BE9}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Defs Added by Year'!Defs_Year_Year_Started</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2011</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Defs Added by Year'!Defs_Year_NPE</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4492</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-08A1-438C-B0A8-FFA61634FE37}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Defs Added by Year'!$C$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Operating Company</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Defs Added by Year'!Defs_Year_Year_Started</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2011</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Defs Added by Year'!Defs_Year_OpCo</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2081</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-08A1-438C-B0A8-FFA61634FE37}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Defs Added by Year'!$D$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Design Patent</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Defs Added by Year'!Defs_Year_Year_Started</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2011</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Defs Added by Year'!Defs_Year_Design</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>266</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-08A1-438C-B0A8-FFA61634FE37}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Defs Added by Year'!$E$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total w/ Design Litigation</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -1701,19 +1903,16 @@
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
-            <c:dLblPos val="outEnd"/>
+            <c:dLblPos val="inBase"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
-            <c:separator>
-</c:separator>
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showDataLabelsRange val="1"/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1734,33 +1933,31 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'Top Districts (Overall)'!$A$2:$A$6</c:f>
+              <c:f>'Defs Added by Year'!Defs_Year_Year_Started</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2011</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Top Districts (Overall)'!$B$2:$B$6</c:f>
+              <c:f>'Defs Added by Year'!Defs_Year_Total</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>6839</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-              <c15:datalabelsRange>
-                <c15:f>'Top Districts (Overall)'!$C$2:$C$6</c15:f>
-                <c15:dlblRangeCache>
-                  <c:ptCount val="5"/>
-                </c15:dlblRangeCache>
-              </c15:datalabelsRange>
-            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-97EA-4624-9EAA-44F83C3C4BE9}"/>
+              <c16:uniqueId val="{00000003-08A1-438C-B0A8-FFA61634FE37}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1773,16 +1970,17 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="50"/>
-        <c:axId val="886196816"/>
-        <c:axId val="886198456"/>
+        <c:overlap val="100"/>
+        <c:axId val="638921648"/>
+        <c:axId val="638925256"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="886196816"/>
+        <c:axId val="638921648"/>
         <c:scaling>
-          <c:orientation val="maxMin"/>
+          <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="l"/>
+        <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1814,7 +2012,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="886198456"/>
+        <c:crossAx val="638925256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1822,17 +2020,18 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="886198456"/>
+        <c:axId val="638925256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="8000"/>
         </c:scaling>
         <c:delete val="1"/>
-        <c:axPos val="t"/>
+        <c:axPos val="l"/>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="886196816"/>
+        <c:crossAx val="638921648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1844,6 +2043,38 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="3"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -1856,9 +2087,7 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
+    <a:noFill/>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:noFill/>
       <a:round/>
@@ -1902,7 +2131,503 @@
       <c:style val="2"/>
     </mc:Fallback>
   </mc:AlternateContent>
-  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Defs Added by Year'!$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NPE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Defs Added by Year'!Defs_Year_Year_Started</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2011</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Defs Added by Year'!Defs_Year_NPE</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4492</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-1ADC-483B-8489-8DCEA90F60ED}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Defs Added by Year'!$C$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Operating Company</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Defs Added by Year'!Defs_Year_Year_Started</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2011</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Defs Added by Year'!Defs_Year_OpCo</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2081</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-1ADC-483B-8489-8DCEA90F60ED}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Defs Added by Year'!$F$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total excl. Design Litigation</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inBase"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Defs Added by Year'!Defs_Year_Year_Started</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2011</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Defs Added by Year'!Defs_Year_Total_No_Design</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>6515</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-1ADC-483B-8489-8DCEA90F60ED}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="50"/>
+        <c:overlap val="100"/>
+        <c:axId val="243035192"/>
+        <c:axId val="243043720"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="243035192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="243043720"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="243043720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="7000"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="243035192"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="2"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
@@ -1916,18 +2641,18 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Top Districts (NPE)'!$B$1</c:f>
+              <c:f>'Top Districts (Overall)'!$B$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Defendant Count</c:v>
+                  <c:v>Defendants Added</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="F68A1D"/>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -1961,7 +2686,7 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-97EA-4624-9EAA-44F83C3C4BE9}"/>
+                  <c16:uniqueId val="{00000002-B57D-4E5F-BBF8-350BDC9C7E88}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1990,7 +2715,7 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000004-97EA-4624-9EAA-44F83C3C4BE9}"/>
+                  <c16:uniqueId val="{00000003-B57D-4E5F-BBF8-350BDC9C7E88}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2019,7 +2744,7 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000005-97EA-4624-9EAA-44F83C3C4BE9}"/>
+                  <c16:uniqueId val="{00000004-B57D-4E5F-BBF8-350BDC9C7E88}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2048,7 +2773,7 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000006-97EA-4624-9EAA-44F83C3C4BE9}"/>
+                  <c16:uniqueId val="{00000005-B57D-4E5F-BBF8-350BDC9C7E88}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2077,7 +2802,7 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000007-97EA-4624-9EAA-44F83C3C4BE9}"/>
+                  <c16:uniqueId val="{00000006-B57D-4E5F-BBF8-350BDC9C7E88}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2139,7 +2864,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'Top Districts (NPE)'!$A$2:$A$6</c:f>
+              <c:f>'Top Districts (Overall)'!$A$8:$A$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2148,9 +2873,9 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Top Districts (NPE)'!$B$2:$B$6</c:f>
+              <c:f>'Top Districts (Overall)'!$B$8:$B$12</c:f>
               <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
               </c:numCache>
             </c:numRef>
@@ -2158,14 +2883,14 @@
           <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
               <c15:datalabelsRange>
-                <c15:f>'Top Districts (NPE)'!$C$2:$C$6</c15:f>
+                <c15:f>'Top Districts (Overall)'!$C$8:$C$12</c15:f>
                 <c15:dlblRangeCache>
                   <c:ptCount val="5"/>
                 </c15:dlblRangeCache>
               </c15:datalabelsRange>
             </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-97EA-4624-9EAA-44F83C3C4BE9}"/>
+              <c16:uniqueId val="{00000000-B57D-4E5F-BBF8-350BDC9C7E88}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2178,11 +2903,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="50"/>
-        <c:axId val="886196816"/>
-        <c:axId val="886198456"/>
+        <c:axId val="680553016"/>
+        <c:axId val="680556624"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="886196816"/>
+        <c:axId val="680553016"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -2219,7 +2944,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="886198456"/>
+        <c:crossAx val="680556624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2227,17 +2952,17 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="886198456"/>
+        <c:axId val="680556624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="t"/>
-        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="886196816"/>
+        <c:crossAx val="680553016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2251,13 +2976,17 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
     <c:showDLblsOverMax val="0"/>
-    <c:extLst/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
+    <a:noFill/>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:noFill/>
       <a:round/>
@@ -2288,7 +3017,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2314,18 +3043,18 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Top Districts (OpCo)'!$B$1</c:f>
+              <c:f>'Top Districts (NPE)'!$B$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Defendant Count</c:v>
+                  <c:v>Defendants Added</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent3"/>
+              <a:schemeClr val="accent4"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -2359,7 +3088,7 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000002-D947-4E77-B0F9-7C039AA76854}"/>
+                  <c16:uniqueId val="{00000003-94A7-4BB7-BCFE-B87A5C52267F}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2388,7 +3117,7 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-D947-4E77-B0F9-7C039AA76854}"/>
+                  <c16:uniqueId val="{00000004-94A7-4BB7-BCFE-B87A5C52267F}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2417,7 +3146,7 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000004-D947-4E77-B0F9-7C039AA76854}"/>
+                  <c16:uniqueId val="{00000005-94A7-4BB7-BCFE-B87A5C52267F}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2446,7 +3175,7 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000005-D947-4E77-B0F9-7C039AA76854}"/>
+                  <c16:uniqueId val="{00000006-94A7-4BB7-BCFE-B87A5C52267F}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2475,7 +3204,7 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000006-D947-4E77-B0F9-7C039AA76854}"/>
+                  <c16:uniqueId val="{00000007-94A7-4BB7-BCFE-B87A5C52267F}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2537,7 +3266,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'Top Districts (OpCo)'!$A$2:$A$6</c:f>
+              <c:f>'Top Districts (NPE)'!$A$8:$A$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2546,9 +3275,9 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Top Districts (OpCo)'!$B$2:$B$6</c:f>
+              <c:f>'Top Districts (NPE)'!$B$8:$B$12</c:f>
               <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
               </c:numCache>
             </c:numRef>
@@ -2556,14 +3285,14 @@
           <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
               <c15:datalabelsRange>
-                <c15:f>'Top Districts (OpCo)'!$C$2:$C$6</c15:f>
+                <c15:f>'Top Districts (NPE)'!$C$8:$C$12</c15:f>
                 <c15:dlblRangeCache>
                   <c:ptCount val="5"/>
                 </c15:dlblRangeCache>
               </c15:datalabelsRange>
             </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D947-4E77-B0F9-7C039AA76854}"/>
+              <c16:uniqueId val="{00000000-94A7-4BB7-BCFE-B87A5C52267F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2576,11 +3305,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="50"/>
-        <c:axId val="874420072"/>
-        <c:axId val="874426304"/>
+        <c:axId val="692699400"/>
+        <c:axId val="692701696"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="874420072"/>
+        <c:axId val="692699400"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -2617,7 +3346,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="874426304"/>
+        <c:crossAx val="692701696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2625,17 +3354,17 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="874426304"/>
+        <c:axId val="692701696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="t"/>
-        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="874420072"/>
+        <c:crossAx val="692699400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2659,9 +3388,7 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
+    <a:noFill/>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:noFill/>
       <a:round/>
@@ -2692,7 +3419,409 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Top Districts (OpCo)'!$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Defendants Added</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>
+</c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-2327-419C-94CA-81576D5BBCB8}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>
+</c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-2327-419C-94CA-81576D5BBCB8}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>
+</c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-2327-419C-94CA-81576D5BBCB8}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>
+</c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-2327-419C-94CA-81576D5BBCB8}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>
+</c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000A-2327-419C-94CA-81576D5BBCB8}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:separator>
+</c:separator>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showDataLabelsRange val="1"/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Top Districts (OpCo)'!$A$8:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Top Districts (OpCo)'!$B$8:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:datalabelsRange>
+                <c15:f>'Top Districts (OpCo)'!$C$8:$C$12</c15:f>
+                <c15:dlblRangeCache>
+                  <c:ptCount val="5"/>
+                </c15:dlblRangeCache>
+              </c15:datalabelsRange>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2327-419C-94CA-81576D5BBCB8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="50"/>
+        <c:axId val="728750416"/>
+        <c:axId val="728748776"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="728750416"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="728748776"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="728748776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="t"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="728750416"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2718,7 +3847,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'PTAB Filings by Quarter'!$B$1</c:f>
+              <c:f>'PTAB Filings by Quarter'!$B$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2793,30 +3922,30 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>[0]!PTAB_Filings_Quarter_Quarter_Filed</c:f>
+              <c:f>'PTAB Filings by Quarter'!PTAB_Filings_Quarter_Quarter_Filed</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2017 Q1</c:v>
+                  <c:v>Q1 2016</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[0]!PTAB_Filings_Quarter_IPR</c:f>
+              <c:f>'PTAB Filings by Quarter'!PTAB_Filings_Quarter_IPR</c:f>
               <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>548</c:v>
+                  <c:v>335</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-248E-4997-ADC7-030480DEC11F}"/>
+              <c16:uniqueId val="{00000000-66FE-45EC-980D-BE9E1BE80EF2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2825,7 +3954,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'PTAB Filings by Quarter'!$C$1</c:f>
+              <c:f>'PTAB Filings by Quarter'!$C$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2846,30 +3975,30 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>[0]!PTAB_Filings_Quarter_Quarter_Filed</c:f>
+              <c:f>'PTAB Filings by Quarter'!PTAB_Filings_Quarter_Quarter_Filed</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2017 Q1</c:v>
+                  <c:v>Q1 2016</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[0]!PTAB_Filings_Quarter_CBM</c:f>
+              <c:f>'PTAB Filings by Quarter'!PTAB_Filings_Quarter_CBM</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>11</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-248E-4997-ADC7-030480DEC11F}"/>
+              <c16:uniqueId val="{00000001-66FE-45EC-980D-BE9E1BE80EF2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2878,7 +4007,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'PTAB Filings by Quarter'!$D$1</c:f>
+              <c:f>'PTAB Filings by Quarter'!$D$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2899,18 +4028,18 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>[0]!PTAB_Filings_Quarter_Quarter_Filed</c:f>
+              <c:f>'PTAB Filings by Quarter'!PTAB_Filings_Quarter_Quarter_Filed</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2017 Q1</c:v>
+                  <c:v>Q1 2016</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[0]!PTAB_Filings_Quarter_PGR</c:f>
+              <c:f>'PTAB Filings by Quarter'!PTAB_Filings_Quarter_PGR</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -2922,7 +4051,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-248E-4997-ADC7-030480DEC11F}"/>
+              <c16:uniqueId val="{00000002-66FE-45EC-980D-BE9E1BE80EF2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2931,507 +4060,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'PTAB Filings by Quarter'!$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Total</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="inBase"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>[0]!PTAB_Filings_Quarter_Quarter_Filed</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>2017 Q1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>[0]!PTAB_Filings_Quarter_Total</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>566</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-248E-4997-ADC7-030480DEC11F}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="50"/>
-        <c:overlap val="100"/>
-        <c:axId val="281201168"/>
-        <c:axId val="281196576"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="281201168"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="281196576"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="281196576"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="600"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="l"/>
-        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="281201168"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:legendEntry>
-        <c:idx val="3"/>
-        <c:delete val="1"/>
-      </c:legendEntry>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:noFill/>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:noFill/>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr>
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-          <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-        </a:defRPr>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="stacked"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'PTAB Filings by Year'!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>IPR</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="bg1"/>
-                    </a:solidFill>
-                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:numRef>
-              <c:f>'PTAB Filings by Year'!PTAB_Filings_Year_Year_Filed</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>2013</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'PTAB Filings by Year'!PTAB_Filings_Year_IPR</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>701</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-EA97-4A04-86A9-D9C038D0A2F6}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'PTAB Filings by Year'!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>CBM</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>'PTAB Filings by Year'!PTAB_Filings_Year_Year_Filed</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>2013</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'PTAB Filings by Year'!PTAB_Filings_Year_CBM</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>89</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-EA97-4A04-86A9-D9C038D0A2F6}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'PTAB Filings by Year'!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>PGR</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="bg2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>'PTAB Filings by Year'!PTAB_Filings_Year_Year_Filed</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>2013</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'PTAB Filings by Year'!PTAB_Filings_Year_PGR</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-EA97-4A04-86A9-D9C038D0A2F6}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'PTAB Filings by Year'!$E$1</c:f>
+              <c:f>'PTAB Filings by Quarter'!$E$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3504,32 +4133,31 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
+            <c:strRef>
+              <c:f>'PTAB Filings by Quarter'!PTAB_Filings_Quarter_Quarter_Filed</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Q1 2016</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
             <c:numRef>
-              <c:f>'PTAB Filings by Year'!PTAB_Filings_Year_Year_Filed</c:f>
+              <c:f>'PTAB Filings by Quarter'!PTAB_Filings_Quarter_Total</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2013</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'PTAB Filings by Year'!PTAB_Filings_Year_Total</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>790</c:v>
+                  <c:v>367</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-EA97-4A04-86A9-D9C038D0A2F6}"/>
+              <c16:uniqueId val="{00000003-66FE-45EC-980D-BE9E1BE80EF2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3543,11 +4171,11 @@
         </c:dLbls>
         <c:gapWidth val="50"/>
         <c:overlap val="100"/>
-        <c:axId val="782951536"/>
-        <c:axId val="782952192"/>
+        <c:axId val="668002016"/>
+        <c:axId val="668010872"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="782951536"/>
+        <c:axId val="668002016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3584,7 +4212,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="782952192"/>
+        <c:crossAx val="668010872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3592,18 +4220,18 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="782952192"/>
+        <c:axId val="668010872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="2000"/>
+          <c:max val="600"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="l"/>
-        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="782951536"/>
+        <c:crossAx val="668002016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3672,6 +4300,503 @@
     <a:p>
       <a:pPr>
         <a:defRPr>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'PTAB Filings by Year'!$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>IPR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'PTAB Filings by Year'!PTAB_Filings_Year_Year_Filed</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2013</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'PTAB Filings by Year'!PTAB_Filings_Year_IPR</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>701</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-AE28-47F2-828A-646EA971A354}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'PTAB Filings by Year'!$C$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CBM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'PTAB Filings by Year'!PTAB_Filings_Year_Year_Filed</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2013</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'PTAB Filings by Year'!PTAB_Filings_Year_CBM</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>89</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-AE28-47F2-828A-646EA971A354}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'PTAB Filings by Year'!$D$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PGR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'PTAB Filings by Year'!PTAB_Filings_Year_Year_Filed</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2013</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'PTAB Filings by Year'!PTAB_Filings_Year_PGR</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-AE28-47F2-828A-646EA971A354}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'PTAB Filings by Year'!$E$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inBase"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'PTAB Filings by Year'!PTAB_Filings_Year_Year_Filed</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2013</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'PTAB Filings by Year'!PTAB_Filings_Year_Total</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>790</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-AE28-47F2-828A-646EA971A354}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="50"/>
+        <c:overlap val="100"/>
+        <c:axId val="673780528"/>
+        <c:axId val="673783152"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="673780528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="673783152"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="673783152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="2000"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="673780528"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="3"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000">
           <a:solidFill>
             <a:sysClr val="windowText" lastClr="000000"/>
           </a:solidFill>
@@ -3970,6 +5095,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
   <cs:axisTitle>
@@ -6496,7 +7701,7 @@
 </file>
 
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -6519,6 +7724,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
   <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
@@ -6990,7 +8206,7 @@
 </file>
 
 <file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -7494,18 +8710,1028 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>3810</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>3362</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>3810</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>186690</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>188034</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
@@ -7514,7 +9740,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3D37CE0-CD38-4294-AD07-7242100F05BF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF08BA9A-B3DA-44FB-828F-B544766B3948}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7532,30 +9758,25 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>3810</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>3810</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>19264</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>186690</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>184672</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>42124</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{608C41BF-9651-4C67-A9BB-64431A05F597}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D457076B-7409-4C01-A16C-D3A5FA5197C8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7569,7 +9790,84 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>8962</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>4479</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>170327</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>94126</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBB86B06-8F9D-4262-BD95-CA1A80D8CB43}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>8959</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>103088</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>170323</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>13441</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06713411-D5C1-493F-8E56-43D6DB83F3D5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -7582,23 +9880,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>666750</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>3810</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>179070</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4784FC9A-1BB5-4FF8-A017-16126F17E612}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DA4E224-1021-4911-AE01-16DC9B84EC5C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7623,13 +9921,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>666750</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>3810</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>179070</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
@@ -7639,7 +9937,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83D830B4-2F1D-45D6-AB95-982529062C21}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85FAE77A-A9D2-4BD0-A992-25D7D71A3762}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7664,13 +9962,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>666750</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>3810</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>179070</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
@@ -7680,7 +9978,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E859191-BDE3-4B4C-BAF4-4285819D4B87}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB986C46-5D82-459C-B9A8-B0C94E22FEAE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7721,7 +10019,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E097E89-0A31-4145-B980-7203A666FCF1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D8ACBE4-B4FC-495E-83CA-6D35B727204F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7762,7 +10060,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06ACA89E-CBB8-4029-AB26-999997CA173B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1E578D5-9364-493A-9B79-E40EB4763B44}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8078,1324 +10376,128 @@
 </a:theme>
 </file>
 
-<file path=xl/theme/themeOverride1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <a:clrScheme name="RPX Style">
-    <a:dk1>
-      <a:srgbClr val="515151"/>
-    </a:dk1>
-    <a:lt1>
-      <a:srgbClr val="FFFFFF"/>
-    </a:lt1>
-    <a:dk2>
-      <a:srgbClr val="BABCC0"/>
-    </a:dk2>
-    <a:lt2>
-      <a:srgbClr val="7F7F7F"/>
-    </a:lt2>
-    <a:accent1>
-      <a:srgbClr val="00A0DE"/>
-    </a:accent1>
-    <a:accent2>
-      <a:srgbClr val="19449C"/>
-    </a:accent2>
-    <a:accent3>
-      <a:srgbClr val="0077BF"/>
-    </a:accent3>
-    <a:accent4>
-      <a:srgbClr val="F68A1D"/>
-    </a:accent4>
-    <a:accent5>
-      <a:srgbClr val="9A488A"/>
-    </a:accent5>
-    <a:accent6>
-      <a:srgbClr val="3DB993"/>
-    </a:accent6>
-    <a:hlink>
-      <a:srgbClr val="0000FF"/>
-    </a:hlink>
-    <a:folHlink>
-      <a:srgbClr val="800080"/>
-    </a:folHlink>
-  </a:clrScheme>
-  <a:fontScheme name="Office">
-    <a:majorFont>
-      <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-      <a:ea typeface=""/>
-      <a:cs typeface=""/>
-      <a:font script="Jpan" typeface="游ゴシック Light"/>
-      <a:font script="Hang" typeface="맑은 고딕"/>
-      <a:font script="Hans" typeface="等线 Light"/>
-      <a:font script="Hant" typeface="新細明體"/>
-      <a:font script="Arab" typeface="Times New Roman"/>
-      <a:font script="Hebr" typeface="Times New Roman"/>
-      <a:font script="Thai" typeface="Tahoma"/>
-      <a:font script="Ethi" typeface="Nyala"/>
-      <a:font script="Beng" typeface="Vrinda"/>
-      <a:font script="Gujr" typeface="Shruti"/>
-      <a:font script="Khmr" typeface="MoolBoran"/>
-      <a:font script="Knda" typeface="Tunga"/>
-      <a:font script="Guru" typeface="Raavi"/>
-      <a:font script="Cans" typeface="Euphemia"/>
-      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-      <a:font script="Thaa" typeface="MV Boli"/>
-      <a:font script="Deva" typeface="Mangal"/>
-      <a:font script="Telu" typeface="Gautami"/>
-      <a:font script="Taml" typeface="Latha"/>
-      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-      <a:font script="Orya" typeface="Kalinga"/>
-      <a:font script="Mlym" typeface="Kartika"/>
-      <a:font script="Laoo" typeface="DokChampa"/>
-      <a:font script="Sinh" typeface="Iskoola Pota"/>
-      <a:font script="Mong" typeface="Mongolian Baiti"/>
-      <a:font script="Viet" typeface="Times New Roman"/>
-      <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      <a:font script="Geor" typeface="Sylfaen"/>
-      <a:font script="Armn" typeface="Arial"/>
-      <a:font script="Bugi" typeface="Leelawadee UI"/>
-      <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-      <a:font script="Java" typeface="Javanese Text"/>
-      <a:font script="Lisu" typeface="Segoe UI"/>
-      <a:font script="Mymr" typeface="Myanmar Text"/>
-      <a:font script="Nkoo" typeface="Ebrima"/>
-      <a:font script="Olck" typeface="Nirmala UI"/>
-      <a:font script="Osma" typeface="Ebrima"/>
-      <a:font script="Phag" typeface="Phagspa"/>
-      <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-      <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-      <a:font script="Syre" typeface="Estrangelo Edessa"/>
-      <a:font script="Sora" typeface="Nirmala UI"/>
-      <a:font script="Tale" typeface="Microsoft Tai Le"/>
-      <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-      <a:font script="Tfng" typeface="Ebrima"/>
-    </a:majorFont>
-    <a:minorFont>
-      <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-      <a:ea typeface=""/>
-      <a:cs typeface=""/>
-      <a:font script="Jpan" typeface="游ゴシック"/>
-      <a:font script="Hang" typeface="맑은 고딕"/>
-      <a:font script="Hans" typeface="等线"/>
-      <a:font script="Hant" typeface="新細明體"/>
-      <a:font script="Arab" typeface="Arial"/>
-      <a:font script="Hebr" typeface="Arial"/>
-      <a:font script="Thai" typeface="Tahoma"/>
-      <a:font script="Ethi" typeface="Nyala"/>
-      <a:font script="Beng" typeface="Vrinda"/>
-      <a:font script="Gujr" typeface="Shruti"/>
-      <a:font script="Khmr" typeface="DaunPenh"/>
-      <a:font script="Knda" typeface="Tunga"/>
-      <a:font script="Guru" typeface="Raavi"/>
-      <a:font script="Cans" typeface="Euphemia"/>
-      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-      <a:font script="Thaa" typeface="MV Boli"/>
-      <a:font script="Deva" typeface="Mangal"/>
-      <a:font script="Telu" typeface="Gautami"/>
-      <a:font script="Taml" typeface="Latha"/>
-      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-      <a:font script="Orya" typeface="Kalinga"/>
-      <a:font script="Mlym" typeface="Kartika"/>
-      <a:font script="Laoo" typeface="DokChampa"/>
-      <a:font script="Sinh" typeface="Iskoola Pota"/>
-      <a:font script="Mong" typeface="Mongolian Baiti"/>
-      <a:font script="Viet" typeface="Arial"/>
-      <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      <a:font script="Geor" typeface="Sylfaen"/>
-      <a:font script="Armn" typeface="Arial"/>
-      <a:font script="Bugi" typeface="Leelawadee UI"/>
-      <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-      <a:font script="Java" typeface="Javanese Text"/>
-      <a:font script="Lisu" typeface="Segoe UI"/>
-      <a:font script="Mymr" typeface="Myanmar Text"/>
-      <a:font script="Nkoo" typeface="Ebrima"/>
-      <a:font script="Olck" typeface="Nirmala UI"/>
-      <a:font script="Osma" typeface="Ebrima"/>
-      <a:font script="Phag" typeface="Phagspa"/>
-      <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-      <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-      <a:font script="Syre" typeface="Estrangelo Edessa"/>
-      <a:font script="Sora" typeface="Nirmala UI"/>
-      <a:font script="Tale" typeface="Microsoft Tai Le"/>
-      <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-      <a:font script="Tfng" typeface="Ebrima"/>
-    </a:minorFont>
-  </a:fontScheme>
-  <a:fmtScheme name="Office">
-    <a:fillStyleLst>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:gradFill rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="phClr">
-              <a:lumMod val="110000"/>
-              <a:satMod val="105000"/>
-              <a:tint val="67000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="50000">
-            <a:schemeClr val="phClr">
-              <a:lumMod val="105000"/>
-              <a:satMod val="103000"/>
-              <a:tint val="73000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="phClr">
-              <a:lumMod val="105000"/>
-              <a:satMod val="109000"/>
-              <a:tint val="81000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:lin ang="5400000" scaled="0"/>
-      </a:gradFill>
-      <a:gradFill rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="phClr">
-              <a:satMod val="103000"/>
-              <a:lumMod val="102000"/>
-              <a:tint val="94000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="50000">
-            <a:schemeClr val="phClr">
-              <a:satMod val="110000"/>
-              <a:lumMod val="100000"/>
-              <a:shade val="100000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="phClr">
-              <a:lumMod val="99000"/>
-              <a:satMod val="120000"/>
-              <a:shade val="78000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:lin ang="5400000" scaled="0"/>
-      </a:gradFill>
-    </a:fillStyleLst>
-    <a:lnStyleLst>
-      <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="solid"/>
-        <a:miter lim="800000"/>
-      </a:ln>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="solid"/>
-        <a:miter lim="800000"/>
-      </a:ln>
-      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="solid"/>
-        <a:miter lim="800000"/>
-      </a:ln>
-    </a:lnStyleLst>
-    <a:effectStyleLst>
-      <a:effectStyle>
-        <a:effectLst/>
-      </a:effectStyle>
-      <a:effectStyle>
-        <a:effectLst/>
-      </a:effectStyle>
-      <a:effectStyle>
-        <a:effectLst>
-          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-            <a:srgbClr val="000000">
-              <a:alpha val="63000"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </a:effectStyle>
-    </a:effectStyleLst>
-    <a:bgFillStyleLst>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:solidFill>
-        <a:schemeClr val="phClr">
-          <a:tint val="95000"/>
-          <a:satMod val="170000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:gradFill rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="phClr">
-              <a:tint val="93000"/>
-              <a:satMod val="150000"/>
-              <a:shade val="98000"/>
-              <a:lumMod val="102000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="50000">
-            <a:schemeClr val="phClr">
-              <a:tint val="98000"/>
-              <a:satMod val="130000"/>
-              <a:shade val="90000"/>
-              <a:lumMod val="103000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="phClr">
-              <a:shade val="63000"/>
-              <a:satMod val="120000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:lin ang="5400000" scaled="0"/>
-      </a:gradFill>
-    </a:bgFillStyleLst>
-  </a:fmtScheme>
-</a:themeOverride>
-</file>
-
-<file path=xl/theme/themeOverride2.xml><?xml version="1.0" encoding="utf-8"?>
-<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <a:clrScheme name="RPX Style">
-    <a:dk1>
-      <a:srgbClr val="515151"/>
-    </a:dk1>
-    <a:lt1>
-      <a:srgbClr val="FFFFFF"/>
-    </a:lt1>
-    <a:dk2>
-      <a:srgbClr val="BABCC0"/>
-    </a:dk2>
-    <a:lt2>
-      <a:srgbClr val="7F7F7F"/>
-    </a:lt2>
-    <a:accent1>
-      <a:srgbClr val="00A0DE"/>
-    </a:accent1>
-    <a:accent2>
-      <a:srgbClr val="19449C"/>
-    </a:accent2>
-    <a:accent3>
-      <a:srgbClr val="0077BF"/>
-    </a:accent3>
-    <a:accent4>
-      <a:srgbClr val="F68A1D"/>
-    </a:accent4>
-    <a:accent5>
-      <a:srgbClr val="9A488A"/>
-    </a:accent5>
-    <a:accent6>
-      <a:srgbClr val="3DB993"/>
-    </a:accent6>
-    <a:hlink>
-      <a:srgbClr val="0000FF"/>
-    </a:hlink>
-    <a:folHlink>
-      <a:srgbClr val="800080"/>
-    </a:folHlink>
-  </a:clrScheme>
-  <a:fontScheme name="Office">
-    <a:majorFont>
-      <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-      <a:ea typeface=""/>
-      <a:cs typeface=""/>
-      <a:font script="Jpan" typeface="游ゴシック Light"/>
-      <a:font script="Hang" typeface="맑은 고딕"/>
-      <a:font script="Hans" typeface="等线 Light"/>
-      <a:font script="Hant" typeface="新細明體"/>
-      <a:font script="Arab" typeface="Times New Roman"/>
-      <a:font script="Hebr" typeface="Times New Roman"/>
-      <a:font script="Thai" typeface="Tahoma"/>
-      <a:font script="Ethi" typeface="Nyala"/>
-      <a:font script="Beng" typeface="Vrinda"/>
-      <a:font script="Gujr" typeface="Shruti"/>
-      <a:font script="Khmr" typeface="MoolBoran"/>
-      <a:font script="Knda" typeface="Tunga"/>
-      <a:font script="Guru" typeface="Raavi"/>
-      <a:font script="Cans" typeface="Euphemia"/>
-      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-      <a:font script="Thaa" typeface="MV Boli"/>
-      <a:font script="Deva" typeface="Mangal"/>
-      <a:font script="Telu" typeface="Gautami"/>
-      <a:font script="Taml" typeface="Latha"/>
-      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-      <a:font script="Orya" typeface="Kalinga"/>
-      <a:font script="Mlym" typeface="Kartika"/>
-      <a:font script="Laoo" typeface="DokChampa"/>
-      <a:font script="Sinh" typeface="Iskoola Pota"/>
-      <a:font script="Mong" typeface="Mongolian Baiti"/>
-      <a:font script="Viet" typeface="Times New Roman"/>
-      <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      <a:font script="Geor" typeface="Sylfaen"/>
-      <a:font script="Armn" typeface="Arial"/>
-      <a:font script="Bugi" typeface="Leelawadee UI"/>
-      <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-      <a:font script="Java" typeface="Javanese Text"/>
-      <a:font script="Lisu" typeface="Segoe UI"/>
-      <a:font script="Mymr" typeface="Myanmar Text"/>
-      <a:font script="Nkoo" typeface="Ebrima"/>
-      <a:font script="Olck" typeface="Nirmala UI"/>
-      <a:font script="Osma" typeface="Ebrima"/>
-      <a:font script="Phag" typeface="Phagspa"/>
-      <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-      <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-      <a:font script="Syre" typeface="Estrangelo Edessa"/>
-      <a:font script="Sora" typeface="Nirmala UI"/>
-      <a:font script="Tale" typeface="Microsoft Tai Le"/>
-      <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-      <a:font script="Tfng" typeface="Ebrima"/>
-    </a:majorFont>
-    <a:minorFont>
-      <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-      <a:ea typeface=""/>
-      <a:cs typeface=""/>
-      <a:font script="Jpan" typeface="游ゴシック"/>
-      <a:font script="Hang" typeface="맑은 고딕"/>
-      <a:font script="Hans" typeface="等线"/>
-      <a:font script="Hant" typeface="新細明體"/>
-      <a:font script="Arab" typeface="Arial"/>
-      <a:font script="Hebr" typeface="Arial"/>
-      <a:font script="Thai" typeface="Tahoma"/>
-      <a:font script="Ethi" typeface="Nyala"/>
-      <a:font script="Beng" typeface="Vrinda"/>
-      <a:font script="Gujr" typeface="Shruti"/>
-      <a:font script="Khmr" typeface="DaunPenh"/>
-      <a:font script="Knda" typeface="Tunga"/>
-      <a:font script="Guru" typeface="Raavi"/>
-      <a:font script="Cans" typeface="Euphemia"/>
-      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-      <a:font script="Thaa" typeface="MV Boli"/>
-      <a:font script="Deva" typeface="Mangal"/>
-      <a:font script="Telu" typeface="Gautami"/>
-      <a:font script="Taml" typeface="Latha"/>
-      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-      <a:font script="Orya" typeface="Kalinga"/>
-      <a:font script="Mlym" typeface="Kartika"/>
-      <a:font script="Laoo" typeface="DokChampa"/>
-      <a:font script="Sinh" typeface="Iskoola Pota"/>
-      <a:font script="Mong" typeface="Mongolian Baiti"/>
-      <a:font script="Viet" typeface="Arial"/>
-      <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      <a:font script="Geor" typeface="Sylfaen"/>
-      <a:font script="Armn" typeface="Arial"/>
-      <a:font script="Bugi" typeface="Leelawadee UI"/>
-      <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-      <a:font script="Java" typeface="Javanese Text"/>
-      <a:font script="Lisu" typeface="Segoe UI"/>
-      <a:font script="Mymr" typeface="Myanmar Text"/>
-      <a:font script="Nkoo" typeface="Ebrima"/>
-      <a:font script="Olck" typeface="Nirmala UI"/>
-      <a:font script="Osma" typeface="Ebrima"/>
-      <a:font script="Phag" typeface="Phagspa"/>
-      <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-      <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-      <a:font script="Syre" typeface="Estrangelo Edessa"/>
-      <a:font script="Sora" typeface="Nirmala UI"/>
-      <a:font script="Tale" typeface="Microsoft Tai Le"/>
-      <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-      <a:font script="Tfng" typeface="Ebrima"/>
-    </a:minorFont>
-  </a:fontScheme>
-  <a:fmtScheme name="Office">
-    <a:fillStyleLst>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:gradFill rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="phClr">
-              <a:lumMod val="110000"/>
-              <a:satMod val="105000"/>
-              <a:tint val="67000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="50000">
-            <a:schemeClr val="phClr">
-              <a:lumMod val="105000"/>
-              <a:satMod val="103000"/>
-              <a:tint val="73000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="phClr">
-              <a:lumMod val="105000"/>
-              <a:satMod val="109000"/>
-              <a:tint val="81000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:lin ang="5400000" scaled="0"/>
-      </a:gradFill>
-      <a:gradFill rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="phClr">
-              <a:satMod val="103000"/>
-              <a:lumMod val="102000"/>
-              <a:tint val="94000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="50000">
-            <a:schemeClr val="phClr">
-              <a:satMod val="110000"/>
-              <a:lumMod val="100000"/>
-              <a:shade val="100000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="phClr">
-              <a:lumMod val="99000"/>
-              <a:satMod val="120000"/>
-              <a:shade val="78000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:lin ang="5400000" scaled="0"/>
-      </a:gradFill>
-    </a:fillStyleLst>
-    <a:lnStyleLst>
-      <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="solid"/>
-        <a:miter lim="800000"/>
-      </a:ln>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="solid"/>
-        <a:miter lim="800000"/>
-      </a:ln>
-      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="solid"/>
-        <a:miter lim="800000"/>
-      </a:ln>
-    </a:lnStyleLst>
-    <a:effectStyleLst>
-      <a:effectStyle>
-        <a:effectLst/>
-      </a:effectStyle>
-      <a:effectStyle>
-        <a:effectLst/>
-      </a:effectStyle>
-      <a:effectStyle>
-        <a:effectLst>
-          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-            <a:srgbClr val="000000">
-              <a:alpha val="63000"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </a:effectStyle>
-    </a:effectStyleLst>
-    <a:bgFillStyleLst>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:solidFill>
-        <a:schemeClr val="phClr">
-          <a:tint val="95000"/>
-          <a:satMod val="170000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:gradFill rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="phClr">
-              <a:tint val="93000"/>
-              <a:satMod val="150000"/>
-              <a:shade val="98000"/>
-              <a:lumMod val="102000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="50000">
-            <a:schemeClr val="phClr">
-              <a:tint val="98000"/>
-              <a:satMod val="130000"/>
-              <a:shade val="90000"/>
-              <a:lumMod val="103000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="phClr">
-              <a:shade val="63000"/>
-              <a:satMod val="120000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:lin ang="5400000" scaled="0"/>
-      </a:gradFill>
-    </a:bgFillStyleLst>
-  </a:fmtScheme>
-</a:themeOverride>
-</file>
-
-<file path=xl/theme/themeOverride3.xml><?xml version="1.0" encoding="utf-8"?>
-<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <a:clrScheme name="RPX Style">
-    <a:dk1>
-      <a:srgbClr val="515151"/>
-    </a:dk1>
-    <a:lt1>
-      <a:srgbClr val="FFFFFF"/>
-    </a:lt1>
-    <a:dk2>
-      <a:srgbClr val="BABCC0"/>
-    </a:dk2>
-    <a:lt2>
-      <a:srgbClr val="7F7F7F"/>
-    </a:lt2>
-    <a:accent1>
-      <a:srgbClr val="00A0DE"/>
-    </a:accent1>
-    <a:accent2>
-      <a:srgbClr val="19449C"/>
-    </a:accent2>
-    <a:accent3>
-      <a:srgbClr val="0077BF"/>
-    </a:accent3>
-    <a:accent4>
-      <a:srgbClr val="F68A1D"/>
-    </a:accent4>
-    <a:accent5>
-      <a:srgbClr val="9A488A"/>
-    </a:accent5>
-    <a:accent6>
-      <a:srgbClr val="3DB993"/>
-    </a:accent6>
-    <a:hlink>
-      <a:srgbClr val="0000FF"/>
-    </a:hlink>
-    <a:folHlink>
-      <a:srgbClr val="800080"/>
-    </a:folHlink>
-  </a:clrScheme>
-  <a:fontScheme name="Office">
-    <a:majorFont>
-      <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-      <a:ea typeface=""/>
-      <a:cs typeface=""/>
-      <a:font script="Jpan" typeface="游ゴシック Light"/>
-      <a:font script="Hang" typeface="맑은 고딕"/>
-      <a:font script="Hans" typeface="等线 Light"/>
-      <a:font script="Hant" typeface="新細明體"/>
-      <a:font script="Arab" typeface="Times New Roman"/>
-      <a:font script="Hebr" typeface="Times New Roman"/>
-      <a:font script="Thai" typeface="Tahoma"/>
-      <a:font script="Ethi" typeface="Nyala"/>
-      <a:font script="Beng" typeface="Vrinda"/>
-      <a:font script="Gujr" typeface="Shruti"/>
-      <a:font script="Khmr" typeface="MoolBoran"/>
-      <a:font script="Knda" typeface="Tunga"/>
-      <a:font script="Guru" typeface="Raavi"/>
-      <a:font script="Cans" typeface="Euphemia"/>
-      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-      <a:font script="Thaa" typeface="MV Boli"/>
-      <a:font script="Deva" typeface="Mangal"/>
-      <a:font script="Telu" typeface="Gautami"/>
-      <a:font script="Taml" typeface="Latha"/>
-      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-      <a:font script="Orya" typeface="Kalinga"/>
-      <a:font script="Mlym" typeface="Kartika"/>
-      <a:font script="Laoo" typeface="DokChampa"/>
-      <a:font script="Sinh" typeface="Iskoola Pota"/>
-      <a:font script="Mong" typeface="Mongolian Baiti"/>
-      <a:font script="Viet" typeface="Times New Roman"/>
-      <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      <a:font script="Geor" typeface="Sylfaen"/>
-      <a:font script="Armn" typeface="Arial"/>
-      <a:font script="Bugi" typeface="Leelawadee UI"/>
-      <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-      <a:font script="Java" typeface="Javanese Text"/>
-      <a:font script="Lisu" typeface="Segoe UI"/>
-      <a:font script="Mymr" typeface="Myanmar Text"/>
-      <a:font script="Nkoo" typeface="Ebrima"/>
-      <a:font script="Olck" typeface="Nirmala UI"/>
-      <a:font script="Osma" typeface="Ebrima"/>
-      <a:font script="Phag" typeface="Phagspa"/>
-      <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-      <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-      <a:font script="Syre" typeface="Estrangelo Edessa"/>
-      <a:font script="Sora" typeface="Nirmala UI"/>
-      <a:font script="Tale" typeface="Microsoft Tai Le"/>
-      <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-      <a:font script="Tfng" typeface="Ebrima"/>
-    </a:majorFont>
-    <a:minorFont>
-      <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-      <a:ea typeface=""/>
-      <a:cs typeface=""/>
-      <a:font script="Jpan" typeface="游ゴシック"/>
-      <a:font script="Hang" typeface="맑은 고딕"/>
-      <a:font script="Hans" typeface="等线"/>
-      <a:font script="Hant" typeface="新細明體"/>
-      <a:font script="Arab" typeface="Arial"/>
-      <a:font script="Hebr" typeface="Arial"/>
-      <a:font script="Thai" typeface="Tahoma"/>
-      <a:font script="Ethi" typeface="Nyala"/>
-      <a:font script="Beng" typeface="Vrinda"/>
-      <a:font script="Gujr" typeface="Shruti"/>
-      <a:font script="Khmr" typeface="DaunPenh"/>
-      <a:font script="Knda" typeface="Tunga"/>
-      <a:font script="Guru" typeface="Raavi"/>
-      <a:font script="Cans" typeface="Euphemia"/>
-      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-      <a:font script="Thaa" typeface="MV Boli"/>
-      <a:font script="Deva" typeface="Mangal"/>
-      <a:font script="Telu" typeface="Gautami"/>
-      <a:font script="Taml" typeface="Latha"/>
-      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-      <a:font script="Orya" typeface="Kalinga"/>
-      <a:font script="Mlym" typeface="Kartika"/>
-      <a:font script="Laoo" typeface="DokChampa"/>
-      <a:font script="Sinh" typeface="Iskoola Pota"/>
-      <a:font script="Mong" typeface="Mongolian Baiti"/>
-      <a:font script="Viet" typeface="Arial"/>
-      <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      <a:font script="Geor" typeface="Sylfaen"/>
-      <a:font script="Armn" typeface="Arial"/>
-      <a:font script="Bugi" typeface="Leelawadee UI"/>
-      <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-      <a:font script="Java" typeface="Javanese Text"/>
-      <a:font script="Lisu" typeface="Segoe UI"/>
-      <a:font script="Mymr" typeface="Myanmar Text"/>
-      <a:font script="Nkoo" typeface="Ebrima"/>
-      <a:font script="Olck" typeface="Nirmala UI"/>
-      <a:font script="Osma" typeface="Ebrima"/>
-      <a:font script="Phag" typeface="Phagspa"/>
-      <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-      <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-      <a:font script="Syre" typeface="Estrangelo Edessa"/>
-      <a:font script="Sora" typeface="Nirmala UI"/>
-      <a:font script="Tale" typeface="Microsoft Tai Le"/>
-      <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-      <a:font script="Tfng" typeface="Ebrima"/>
-    </a:minorFont>
-  </a:fontScheme>
-  <a:fmtScheme name="Office">
-    <a:fillStyleLst>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:gradFill rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="phClr">
-              <a:lumMod val="110000"/>
-              <a:satMod val="105000"/>
-              <a:tint val="67000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="50000">
-            <a:schemeClr val="phClr">
-              <a:lumMod val="105000"/>
-              <a:satMod val="103000"/>
-              <a:tint val="73000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="phClr">
-              <a:lumMod val="105000"/>
-              <a:satMod val="109000"/>
-              <a:tint val="81000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:lin ang="5400000" scaled="0"/>
-      </a:gradFill>
-      <a:gradFill rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="phClr">
-              <a:satMod val="103000"/>
-              <a:lumMod val="102000"/>
-              <a:tint val="94000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="50000">
-            <a:schemeClr val="phClr">
-              <a:satMod val="110000"/>
-              <a:lumMod val="100000"/>
-              <a:shade val="100000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="phClr">
-              <a:lumMod val="99000"/>
-              <a:satMod val="120000"/>
-              <a:shade val="78000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:lin ang="5400000" scaled="0"/>
-      </a:gradFill>
-    </a:fillStyleLst>
-    <a:lnStyleLst>
-      <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="solid"/>
-        <a:miter lim="800000"/>
-      </a:ln>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="solid"/>
-        <a:miter lim="800000"/>
-      </a:ln>
-      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="solid"/>
-        <a:miter lim="800000"/>
-      </a:ln>
-    </a:lnStyleLst>
-    <a:effectStyleLst>
-      <a:effectStyle>
-        <a:effectLst/>
-      </a:effectStyle>
-      <a:effectStyle>
-        <a:effectLst/>
-      </a:effectStyle>
-      <a:effectStyle>
-        <a:effectLst>
-          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-            <a:srgbClr val="000000">
-              <a:alpha val="63000"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </a:effectStyle>
-    </a:effectStyleLst>
-    <a:bgFillStyleLst>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:solidFill>
-        <a:schemeClr val="phClr">
-          <a:tint val="95000"/>
-          <a:satMod val="170000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:gradFill rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="phClr">
-              <a:tint val="93000"/>
-              <a:satMod val="150000"/>
-              <a:shade val="98000"/>
-              <a:lumMod val="102000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="50000">
-            <a:schemeClr val="phClr">
-              <a:tint val="98000"/>
-              <a:satMod val="130000"/>
-              <a:shade val="90000"/>
-              <a:lumMod val="103000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="phClr">
-              <a:shade val="63000"/>
-              <a:satMod val="120000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:lin ang="5400000" scaled="0"/>
-      </a:gradFill>
-    </a:bgFillStyleLst>
-  </a:fmtScheme>
-</a:themeOverride>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53F5D069-C005-4D7F-87B6-6C19F6DA410E}">
-  <dimension ref="A1:E61"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3E1281C-B13D-4F7B-A447-2835BE6D25CA}">
+  <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="20.796875" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.796875" style="1"/>
+    <col min="1" max="4" width="20.796875" customWidth="1"/>
+    <col min="5" max="5" width="24" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>8</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
+      <c r="B1" s="17" t="s">
+        <v>21</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
+      <c r="C1" s="18"/>
+      <c r="D1" s="19"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>11</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
+      <c r="B2" s="20"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="22"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
+        <v>12</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>4</v>
+      <c r="B3" s="20"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="22"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="23"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="22"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="25"/>
+      <c r="D5" s="26"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>11</v>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="38" t="s">
+        <v>27</v>
       </c>
-      <c r="B2" s="9">
-        <v>489</v>
+      <c r="B8" s="38">
+        <v>373</v>
       </c>
-      <c r="C2" s="9">
-        <v>346</v>
+      <c r="C8" s="38">
+        <v>434</v>
       </c>
-      <c r="D2" s="9">
-        <v>48</v>
+      <c r="D8" s="38">
+        <v>64</v>
       </c>
-      <c r="E2" s="9">
-        <v>883</v>
+      <c r="E8" s="38">
+        <v>871</v>
+      </c>
+      <c r="F8" s="38">
+        <v>807</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E15" s="43"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
+    <row r="17" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E17" s="43"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
+    <row r="18" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D18" s="43"/>
+      <c r="E18" s="43"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
+    <row r="19" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E19" s="43"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
+    <row r="23" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E23" s="43"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
+    <row r="25" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E25" s="43"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
+    <row r="26" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D26" s="43"/>
+      <c r="E26" s="43"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="8"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="13"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="13"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="13"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="13"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="13"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="13"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="13"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="13"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="13"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="13"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="13"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="13"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="13"/>
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="13"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="13"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="13"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="13"/>
-      <c r="B34" s="13"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="13"/>
-      <c r="B35" s="13"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="13"/>
-      <c r="B36" s="13"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="13"/>
-      <c r="B37" s="13"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="13"/>
-      <c r="B38" s="13"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="13"/>
-      <c r="B39" s="13"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="13"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="13"/>
-      <c r="B40" s="13"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="13"/>
-      <c r="E40" s="13"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="13"/>
-      <c r="B41" s="13"/>
-      <c r="C41" s="13"/>
-      <c r="D41" s="13"/>
-      <c r="E41" s="13"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="13"/>
-      <c r="B42" s="13"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="13"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="13"/>
-      <c r="B43" s="13"/>
-      <c r="C43" s="13"/>
-      <c r="D43" s="13"/>
-      <c r="E43" s="13"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="13"/>
-      <c r="B44" s="13"/>
-      <c r="C44" s="13"/>
-      <c r="D44" s="13"/>
-      <c r="E44" s="13"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="13"/>
-      <c r="B45" s="13"/>
-      <c r="C45" s="13"/>
-      <c r="D45" s="13"/>
-      <c r="E45" s="13"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="13"/>
-      <c r="B46" s="13"/>
-      <c r="C46" s="13"/>
-      <c r="D46" s="13"/>
-      <c r="E46" s="13"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="13"/>
-      <c r="B47" s="13"/>
-      <c r="C47" s="13"/>
-      <c r="D47" s="13"/>
-      <c r="E47" s="13"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="13"/>
-      <c r="B48" s="13"/>
-      <c r="C48" s="13"/>
-      <c r="D48" s="13"/>
-      <c r="E48" s="13"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="13"/>
-      <c r="B49" s="13"/>
-      <c r="C49" s="13"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="13"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="13"/>
-      <c r="B50" s="13"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="13"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="13"/>
-      <c r="B51" s="13"/>
-      <c r="C51" s="13"/>
-      <c r="D51" s="13"/>
-      <c r="E51" s="13"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="13"/>
-      <c r="B52" s="13"/>
-      <c r="C52" s="13"/>
-      <c r="D52" s="13"/>
-      <c r="E52" s="13"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="13"/>
-      <c r="B53" s="13"/>
-      <c r="C53" s="13"/>
-      <c r="D53" s="13"/>
-      <c r="E53" s="13"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="13"/>
-      <c r="B54" s="13"/>
-      <c r="C54" s="13"/>
-      <c r="D54" s="13"/>
-      <c r="E54" s="13"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="13"/>
-      <c r="B55" s="13"/>
-      <c r="C55" s="13"/>
-      <c r="D55" s="13"/>
-      <c r="E55" s="13"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="13"/>
-      <c r="B56" s="13"/>
-      <c r="C56" s="13"/>
-      <c r="D56" s="13"/>
-      <c r="E56" s="13"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="13"/>
-      <c r="B57" s="13"/>
-      <c r="C57" s="13"/>
-      <c r="D57" s="13"/>
-      <c r="E57" s="13"/>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="13"/>
-      <c r="B58" s="13"/>
-      <c r="C58" s="13"/>
-      <c r="D58" s="13"/>
-      <c r="E58" s="13"/>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="13"/>
-      <c r="B59" s="13"/>
-      <c r="C59" s="13"/>
-      <c r="D59" s="13"/>
-      <c r="E59" s="13"/>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="13"/>
-      <c r="B60" s="13"/>
-      <c r="C60" s="13"/>
-      <c r="D60" s="13"/>
-      <c r="E60" s="13"/>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="13"/>
-      <c r="B61" s="13"/>
-      <c r="C61" s="13"/>
-      <c r="D61" s="13"/>
-      <c r="E61" s="13"/>
+    <row r="27" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E27" s="43"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9404,463 +10506,171 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70653624-93BA-43D8-9D87-2558F5C6896D}">
-  <dimension ref="A1:E61"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E499E08-1D77-4A9B-89FB-C2B39CDC5B0B}">
+  <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="20.796875" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.796875" style="1"/>
+    <col min="1" max="4" width="20.796875" customWidth="1"/>
+    <col min="5" max="5" width="24" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>5</v>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>8</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
+      <c r="B1" s="17" t="s">
+        <v>24</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
+      <c r="C1" s="18"/>
+      <c r="D1" s="19"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>11</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
+      <c r="B2" s="20"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="22"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
+        <v>12</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>4</v>
+      <c r="B3" s="20"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="22"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="23"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="22"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="25"/>
+      <c r="D5" s="26"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>10</v>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="44">
+        <v>2011</v>
       </c>
-      <c r="B2" s="9">
-        <v>3617</v>
+      <c r="B8" s="5">
+        <v>4492</v>
       </c>
-      <c r="C2" s="9">
-        <v>2191</v>
+      <c r="C8" s="5">
+        <v>2081</v>
       </c>
-      <c r="D2" s="9">
-        <v>292</v>
+      <c r="D8" s="5">
+        <v>266</v>
       </c>
-      <c r="E2" s="9">
-        <v>6100</v>
+      <c r="E8" s="5">
+        <v>6839</v>
+      </c>
+      <c r="F8" s="5">
+        <v>6515</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="44"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="44"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="44"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="44"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="44"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="44"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="44"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="11"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="44"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="11"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
+      <c r="A17" s="44"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="13"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="13"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="13"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="13"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="13"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="13"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="13"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="13"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="13"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="13"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="13"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="13"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="13"/>
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="13"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="13"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="13"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="13"/>
-      <c r="B34" s="13"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="13"/>
-      <c r="B35" s="13"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="13"/>
-      <c r="B36" s="13"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="13"/>
-      <c r="B37" s="13"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="13"/>
-      <c r="B38" s="13"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="13"/>
-      <c r="B39" s="13"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="13"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="13"/>
-      <c r="B40" s="13"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="13"/>
-      <c r="E40" s="13"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="13"/>
-      <c r="B41" s="13"/>
-      <c r="C41" s="13"/>
-      <c r="D41" s="13"/>
-      <c r="E41" s="13"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="13"/>
-      <c r="B42" s="13"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="13"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="13"/>
-      <c r="B43" s="13"/>
-      <c r="C43" s="13"/>
-      <c r="D43" s="13"/>
-      <c r="E43" s="13"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="13"/>
-      <c r="B44" s="13"/>
-      <c r="C44" s="13"/>
-      <c r="D44" s="13"/>
-      <c r="E44" s="13"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="13"/>
-      <c r="B45" s="13"/>
-      <c r="C45" s="13"/>
-      <c r="D45" s="13"/>
-      <c r="E45" s="13"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="13"/>
-      <c r="B46" s="13"/>
-      <c r="C46" s="13"/>
-      <c r="D46" s="13"/>
-      <c r="E46" s="13"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="13"/>
-      <c r="B47" s="13"/>
-      <c r="C47" s="13"/>
-      <c r="D47" s="13"/>
-      <c r="E47" s="13"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="13"/>
-      <c r="B48" s="13"/>
-      <c r="C48" s="13"/>
-      <c r="D48" s="13"/>
-      <c r="E48" s="13"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="13"/>
-      <c r="B49" s="13"/>
-      <c r="C49" s="13"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="13"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="13"/>
-      <c r="B50" s="13"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="13"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="13"/>
-      <c r="B51" s="13"/>
-      <c r="C51" s="13"/>
-      <c r="D51" s="13"/>
-      <c r="E51" s="13"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="13"/>
-      <c r="B52" s="13"/>
-      <c r="C52" s="13"/>
-      <c r="D52" s="13"/>
-      <c r="E52" s="13"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="13"/>
-      <c r="B53" s="13"/>
-      <c r="C53" s="13"/>
-      <c r="D53" s="13"/>
-      <c r="E53" s="13"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="13"/>
-      <c r="B54" s="13"/>
-      <c r="C54" s="13"/>
-      <c r="D54" s="13"/>
-      <c r="E54" s="13"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="13"/>
-      <c r="B55" s="13"/>
-      <c r="C55" s="13"/>
-      <c r="D55" s="13"/>
-      <c r="E55" s="13"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="13"/>
-      <c r="B56" s="13"/>
-      <c r="C56" s="13"/>
-      <c r="D56" s="13"/>
-      <c r="E56" s="13"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="13"/>
-      <c r="B57" s="13"/>
-      <c r="C57" s="13"/>
-      <c r="D57" s="13"/>
-      <c r="E57" s="13"/>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="13"/>
-      <c r="B58" s="13"/>
-      <c r="C58" s="13"/>
-      <c r="D58" s="13"/>
-      <c r="E58" s="13"/>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="13"/>
-      <c r="B59" s="13"/>
-      <c r="C59" s="13"/>
-      <c r="D59" s="13"/>
-      <c r="E59" s="13"/>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="13"/>
-      <c r="B60" s="13"/>
-      <c r="C60" s="13"/>
-      <c r="D60" s="13"/>
-      <c r="E60" s="13"/>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="13"/>
-      <c r="B61" s="13"/>
-      <c r="C61" s="13"/>
-      <c r="D61" s="13"/>
-      <c r="E61" s="13"/>
+      <c r="A18" s="44"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9869,51 +10679,87 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C6910EE-80BC-431D-B158-4F66462A430E}">
-  <dimension ref="A1:C6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E0AF592-58E9-43F6-9B35-54679A46D7E7}">
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="20.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>6</v>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>8</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="18"/>
+      <c r="D1" s="19"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="28"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="22"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="28"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="22"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="21"/>
+      <c r="D4" s="22"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>8</v>
+      <c r="B5" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="25"/>
+      <c r="D5" s="26"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="8"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="10"/>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C8" s="39"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="10"/>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C9" s="39"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="10"/>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C10" s="39"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="10"/>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C11" s="39"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="10"/>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C12" s="39"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9922,51 +10768,92 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A1AC1D9-C336-4EA4-813D-E0B0F4F74DCB}">
-  <dimension ref="A1:C6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77AC3BD0-AF0E-48A5-91DB-FA89B2A84457}">
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="20.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>6</v>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>8</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="18"/>
+      <c r="D1" s="19"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="28"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="22"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="28"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="22"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="31"/>
+      <c r="D4" s="22"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>8</v>
+      <c r="B5" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="32"/>
+      <c r="D5" s="26"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="6"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="8"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="10"/>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C8" s="39"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="10"/>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C9" s="39"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="10"/>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C10" s="39"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="10"/>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C11" s="39"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="10"/>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C12" s="39"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9975,51 +10862,102 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBC1B134-1301-4A2A-BF29-534846736A12}">
-  <dimension ref="A1:C6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60ABC9B7-B4C1-497F-9902-63129A098E77}">
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="20.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>6</v>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>8</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="18"/>
+      <c r="D1" s="19"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="28"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="22"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="28"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="22"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="31"/>
+      <c r="D4" s="22"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>8</v>
+      <c r="B5" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="32"/>
+      <c r="D5" s="26"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="6"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="8"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="10"/>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="38"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="42"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="10"/>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="40"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="41"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="10"/>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="40"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="41"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="10"/>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="40"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="41"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="10"/>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="40"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="41"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10028,10 +10966,10 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEBC7F09-A401-48DA-B83E-AE6353CDEF75}">
-  <dimension ref="A1:E17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC437D7F-77A0-4718-9661-077D682D3462}">
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
@@ -10039,143 +10977,138 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
-        <v>9</v>
+      <c r="A1" s="13" t="s">
+        <v>8</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="18"/>
+      <c r="D1" s="19"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="30"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="22"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="15" t="s">
-        <v>13</v>
+      <c r="B3" s="33"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="22"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>22</v>
       </c>
-      <c r="D1" s="15" t="s">
-        <v>14</v>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="22"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
+        <v>7</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="B5" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="25"/>
+      <c r="D5" s="26"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="E7" s="9" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>11</v>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="38" t="s">
+        <v>25</v>
       </c>
-      <c r="B2" s="9">
-        <v>548</v>
+      <c r="B8" s="38">
+        <v>335</v>
       </c>
-      <c r="C2" s="8">
-        <v>11</v>
+      <c r="C8" s="38">
+        <v>25</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D8" s="38">
         <v>7</v>
       </c>
-      <c r="E2" s="8">
-        <v>566</v>
+      <c r="E8" s="38">
+        <v>367</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-    </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
+      <c r="A9" s="38"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
+      <c r="A10" s="38"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
+      <c r="A11" s="38"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
+      <c r="A12" s="38"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
+      <c r="A13" s="38"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
+      <c r="A14" s="38"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
+      <c r="A15" s="38"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="8"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
+      <c r="A16" s="38"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="38"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10184,10 +11117,10 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F9B0B90-11B5-46D0-B4D1-369E2D6E8360}">
-  <dimension ref="A1:E12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{886F8C3B-10DD-4960-B412-C9CADFBF3307}">
+  <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
@@ -10195,108 +11128,138 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
-        <v>15</v>
+      <c r="A1" s="13" t="s">
+        <v>8</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="18"/>
+      <c r="D1" s="19"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="30"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="22"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="15" t="s">
-        <v>13</v>
+      <c r="B3" s="33"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>22</v>
       </c>
-      <c r="D1" s="15" t="s">
-        <v>14</v>
+      <c r="B4" s="21"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="5"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
+        <v>7</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="B5" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="36"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="5"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="5"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="E7" s="9" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="8">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
         <v>2013</v>
       </c>
-      <c r="B2" s="9">
+      <c r="B8" s="5">
         <v>701</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C8" s="4">
         <v>89</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D8" s="4">
         <v>0</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E8" s="5">
         <v>790</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-    </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="5"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
+      <c r="E10" s="5"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
+      <c r="A11" s="4"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="4"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="4"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="4"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
